--- a/model_output.xlsx
+++ b/model_output.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150</t>
+          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150And I thought it was the engine size or cost of fuel?Thanks for the correction.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150And I thought it was the engine size or cost of fuel?Thanks for the correction.</t>
+          <t>Bros is promoting his business!The initial installation cost is just discouraging.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bros is promoting his business!The initial installation cost is just discouraging.</t>
+          <t>Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>This is unbelievable tho.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>This is unbelievable tho.</t>
+          <t>Obi supporters no go like am. Them hate good news from this administration.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Obi supporters no go like am. Them hate good news from this administration.</t>
+          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?</t>
+          <t>No CNG parts for sale locally? Hmmm. And the government is busy saying CNG is the way to go. Kai</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>No CNG parts for sale locally? Hmmm. And the government is busy saying CNG is the way to go. Kai</t>
+          <t>Hmmmmm, my prayer is for a good road. Bad road, accident with gas is death ☠️💀. Gas is highly volatile more than PMS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hmmmmm, my prayer is for a good road. Bad road, accident with gas is death ☠️💀. Gas is highly volatile more than PMS</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available,they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available,they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
+          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200,currently dollar at black market is 1140 to 1150</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200,currently dollar at black market is 1140 to 1150</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.</t>
+          <t>tolue42:Are you kidding me? To drive my SUV 6 plugs from Ajah to Ekiti cost me 30k petrol. So that 10k will only take you to Ibadan or before Ibadan your car will off!</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tolue42:Are you kidding me? To drive my SUV 6 plugs from Ajah to Ekiti cost me 30k petrol. So that 10k will only take you to Ibadan or before Ibadan your car will off!</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.local refineries will have to buy crude oil at market prices</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.local refineries will have to buy crude oil at market prices</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Take it easy. I turned my gen to use gas since 2019 and it's amazing. The gen has never had fault since then till date and it's cheaper with less sound and no combustion.Normally, where I stay, there is 24/7 free light, but when transformer misbehaves, that's what I use. Though, I have given the gen out and those people enjoy it till this day. They're scared of gas, so the mostly use fuel.https://www.nairaland.com/5229157/scary-look-scary-thing-im#79071258</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Take it easy. I turned my gen to use gas since 2019 and it's amazing. The gen has never had fault since then till date and it's cheaper with less sound and no combustion.Normally, where I stay, there is 24/7 free light, but when transformer misbehaves, that's what I use. Though, I have given the gen out and those people enjoy it till this day. They're scared of gas, so the mostly use fuel.https://www.nairaland.com/5229157/scary-look-scary-thing-im#79071258</t>
+          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150When you are trying to prempt cost or make a budget its best you over estimate than to under estimate.When you over estimate the worst that can happen you achieve your goal and save back the change, my 2cent</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200, currently dollar at black market is 1140 to 1150When you are trying to prempt cost or make a budget its best you over estimate than to under estimate.When you over estimate the worst that can happen you achieve your goal and save back the change, my 2cent</t>
+          <t>doggedfighter:Very cheap800k to 1m naira to fit. Not enough gas stations nationwide to enjoy the money spent</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>doggedfighter:Very cheap800k to 1m naira to fit. Not enough gas stations nationwide to enjoy the money spent</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available,they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.Lol. If you understand that as long as there is no subsidy on fuels (petrol, diesel and kerosine), the price difference when it is imported and when it is refined locally won't be much.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available,they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.Lol. If you understand that as long as there is no subsidy on fuels (petrol, diesel and kerosine), the price difference when it is imported and when it is refined locally won't be much.</t>
+          <t>What type of splitting hairs is this?What is this difference btw 1140 and 1200?Or are you saying that there is a force that will ensure Dollar cannot touch 1200?Some people will always look for a spec on your white.SighIVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200,currently dollar at black market is 1140 to 1150</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>What type of splitting hairs is this?What is this difference btw 1140 and 1200?Or are you saying that there is a force that will ensure Dollar cannot touch 1200?Some people will always look for a spec on your white.SighIVORY2009:Good initiative, but your current calculations using dollar to naira is wrong, $380 to 456,000 naira meaning a dollar is 1200,currently dollar at black market is 1140 to 1150</t>
+          <t>/It seems like a good alternative but the problem is that you can't win in Nigeria. Once the awareness is created and people convert their vehicles to run on CNG, the government will come up with one excuse to jack up the price of CNG./</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>/It seems like a good alternative but the problem is that you can't win in Nigeria. Once the awareness is created and people convert their vehicles to run on CNG, the government will come up with one excuse to jack up the price of CNG./</t>
+          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.I get your point quite alright. They deliberately ran it aground.It pays to build new one than to fix that. That’s what we are preaching and refinery engineers and technicians have told governments this but somebody somewhere still goes ahead to maintain a refinery that is not serviceable.All the OEM equipment for the refineries are no longer being manufactured because the manufacturers have stopped spares and  service supports for those engines and parts. No manufacturer supports more than 10 years after sales. So the refinery is a junk of old scrap.Any new equipment they bring there is not from OEM and it will breakdown quickly. Most of them won’t have warranties.They are only using the refineries to ste.al money.The 14 trillion Naira they have spent in ‘maintaining’ then could build modern and very hi-tech refinery.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lomprico:Bros! The refineries dint go bad, the crroks in government abondoned it so that they will keep stealing from importation and subsidy.You dint get my point, if FG wants to sincerely cut import duties and make CNG affordable and readily available, they can sincerely make our refineries work and if it starts working, no Nigerian will bother about converting their vehicle to CNG fuel.I get your point quite alright. They deliberately ran it aground.It pays to build new one than to fix that. That’s what we are preaching and refinery engineers and technicians have told governments this but somebody somewhere still goes ahead to maintain a refinery that is not serviceable.All the OEM equipment for the refineries are no longer being manufactured because the manufacturers have stopped spares and  service supports for those engines and parts. No manufacturer supports more than 10 years after sales. So the refinery is a junk of old scrap.Any new equipment they bring there is not from OEM and it will breakdown quickly. Most of them won’t have warranties.They are only using the refineries to ste.al money.The 14 trillion Naira they have spent in ‘maintaining’ then could build modern and very hi-tech refinery.</t>
+          <t>tolue42:Are you kidding me? To drive my SUV 6 plugs from Ajah to Ekiti cost me 30k petrol. So that 10k will only take you to Ibadan or before Ibadan your car will off!I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,7 +748,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tolue42:Are you kidding me? To drive my SUV 6 plugs from Ajah to Ekiti cost me 30k petrol. So that 10k will only take you to Ibadan or before Ibadan your car will off!I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Gbam!</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Gbam!</t>
+          <t>no u wrong, gas usage for gen was cost saving because gas dropped to 500 per kg, i cant say same now that its 1000 per kgEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>no u wrong, gas usage for gen was cost saving because gas dropped to 500 per kg, i cant say same now that its 1000 per kgEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.the problem with the generator converter is the converter itself but cost of gas which lng in this case. Cng is not readily available even in the area where it is available I doubt if they have the cng gas tank as you can use your lpg tank for cng. The need for the converter is for the cost of cng and not necessarily for fuel economic.Same thing with the car, if you live in an area were cng is readily available as the cost of installation, the fuel is way cheaper.Now on the issue of America not having more than 2k refueling cng stations, there are several factors at play which largely affects the usage of cng car such high cost of a cng car compared to regular car, cheap gasoline price, fewer cng gas station etc.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,7 +784,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.the problem with the generator converter is the converter itself but cost of gas which lng in this case. Cng is not readily available even in the area where it is available I doubt if they have the cng gas tank as you can use your lpg tank for cng. The need for the converter is for the cost of cng and not necessarily for fuel economic.Same thing with the car, if you live in an area were cng is readily available as the cost of installation, the fuel is way cheaper.Now on the issue of America not having more than 2k refueling cng stations, there are several factors at play which largely affects the usage of cng car such high cost of a cng car compared to regular car, cheap gasoline price, fewer cng gas station etc.</t>
+          <t>You too 'sabi hard' ..........the guy is selling lies to the simple. We're fooling ourselves by looking for alternative to LPG or PMSEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>You too 'sabi hard' ..........the guy is selling lies to the simple. We're fooling ourselves by looking for alternative to LPG or PMSEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -832,7 +832,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>Babangidapikin:You and your biase mind, who invite you, as if it's not your Southern leader that impose Bubu and Northern leaders that impose Ebora Owu ..</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,7 +844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Babangidapikin:You and your biase mind, who invite you, as if it's not your Southern leader that impose Bubu and Northern leaders that impose Ebora Owu ..</t>
+          <t>Angrygoat:Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Ode</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Angrygoat:Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Ode</t>
+          <t>benuejosh:Obi supporters no go like am. Them hate good news from this administration.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>benuejosh:Obi supporters no go like am. Them hate good news from this administration.</t>
+          <t>lomprico:Why can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,7 +880,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lomprico:Why can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Oga, what you use for your generator is LNG. (Liquidified Natural Gas).What the op used on this vehicle is CNG (Compressed Natural Gas)There's a big difference here.One is liquid the other is more denseThey don't burn at the same rate.That is why it's also difficult to refill the cannisters because what you have all around is LNG gas plants and not CNG.So as he said seeing is believing.I truly believe his experiment....but the only deterrent is the unavailability of CNG refill plants</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,7 +892,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.Oga, what you use for your generator is LNG. (Liquidified Natural Gas).What the op used on this vehicle is CNG (Compressed Natural Gas)There's a big difference here.One is liquid the other is more denseThey don't burn at the same rate.That is why it's also difficult to refill the cannisters because what you have all around is LNG gas plants and not CNG.So as he said seeing is believing.I truly believe his experiment....but the only deterrent is the unavailability of CNG refill plants</t>
+          <t>Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Ode</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Ode</t>
+          <t>I tell youEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,7 +916,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I tell youEriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>Auskyd:Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?One thing you fail to understand is that importers would always take advantage of the current unstable fx issues in Nigeria to manipulate their prices to make urge profit.The question is was there date of purchase?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Auskyd:Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?One thing you fail to understand is that importers would always take advantage of the current unstable fx issues in Nigeria to manipulate their prices to make urge profit.The question is was there date of purchase?</t>
+          <t>Babangidapikin:You and your biase mind, who invite you, as if it's not your Southern leader that impose Bubu and Northern leaders that impose Ebora Owu ..You sound like an illiterate in Nigerian politics. Tinubu like Awolowo was disatisfied with the Nigerian's political leaders from the north and their mentality. He hated the oligarchy system of the north. Ha proposed secession clause but was frustrated by his Benjamin brother, Zik. Igbos went for war while Awolowo went for aggressive educational campaign. Years down the lane, you can see the difference. The northern leaders using Islam to deceive and suppress their subjects. Islam is not bad. Islam contributes so much to education. So much. The oldest university is built by Muslims before the western world.Today, the insecurities that wants to engulf the north is the product of the greed of northern politicians.Tinubu once kicked against one Nigeria. War in not an option. He had to team up with other parties to wrest power from directionless PDP.He had an agreement to rule after Buhari. Northern elements want to thwart it, in what led to' emilokan' using Abdullahi Adamu.Greed showed up again. Gradually, military intervention is no longer an option in Nigeria.The eyes of the middle belters are opening. If the north is not careful, in the foreseeable future, they will lose all like the northern Cameroon.They believe that Tinubu being a Muslim share the same philosophy with them. Tinubu Is firstly a yoruba man before being a Muslim. He thinks as a any yoruba man of any religion.He thinks about good quality of life for all.</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Babangidapikin:You and your biase mind, who invite you, as if it's not your Southern leader that impose Bubu and Northern leaders that impose Ebora Owu ..You sound like an illiterate in Nigerian politics. Tinubu like Awolowo was disatisfied with the Nigerian's political leaders from the north and their mentality. He hated the oligarchy system of the north. Ha proposed secession clause but was frustrated by his Benjamin brother, Zik. Igbos went for war while Awolowo went for aggressive educational campaign. Years down the lane, you can see the difference. The northern leaders using Islam to deceive and suppress their subjects. Islam is not bad. Islam contributes so much to education. So much. The oldest university is built by Muslims before the western world.Today, the insecurities that wants to engulf the north is the product of the greed of northern politicians.Tinubu once kicked against one Nigeria. War in not an option. He had to team up with other parties to wrest power from directionless PDP.He had an agreement to rule after Buhari. Northern elements want to thwart it, in what led to' emilokan' using Abdullahi Adamu.Greed showed up again. Gradually, military intervention is no longer an option in Nigeria.The eyes of the middle belters are opening. If the north is not careful, in the foreseeable future, they will lose all like the northern Cameroon.They believe that Tinubu being a Muslim share the same philosophy with them. Tinubu Is firstly a yoruba man before being a Muslim. He thinks as a any yoruba man of any religion.He thinks about good quality of life for all.</t>
+          <t>Angrygoat:Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Odeangry goat</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Angrygoat:Doesn't change the fact that you still remain a dwarf balled knuckle headed kazeem who condemn ppl car always and would rush to suggest u buy a toks engine . Odeangry goat</t>
+          <t>benuejosh:Obi supporters no go like am. Them hate good news from this administration.How is this good news</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>benuejosh:Obi supporters no go like am. Them hate good news from this administration.How is this good news</t>
+          <t>lomprico:Why can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.Which refinery? That of DANGOTE or that of FG? If it is government’s refinery you are talking about, my brother, FORGET ABOUT IT. It can never work again. May be it can work in another life sha.I don’t think you know the level of decay at those refineries.Something they have been collecting trillions of Naira on for over a decade and no single drop of oil was refined. You better don’t raise your hopes on that.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>lomprico:Why can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.Which refinery? That of DANGOTE or that of FG? If it is government’s refinery you are talking about, my brother, FORGET ABOUT IT. It can never work again. May be it can work in another life sha.I don’t think you know the level of decay at those refineries.Something they have been collecting trillions of Naira on for over a decade and no single drop of oil was refined. You better don’t raise your hopes on that.</t>
+          <t>Dey play oDey play 🚶‍♂️😒</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Dey play oDey play 🚶‍♂️😒</t>
+          <t>Nonsense talk, when Buhari was uselesing the the Nigeria economy then, if you complain local Yoruba Muslims will call you Wailer, now day don break</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Nonsense talk, when Buhari was uselesing the the Nigeria economy then, if you complain local Yoruba Muslims will call you Wailer, now day don break</t>
+          <t>Even truth sound like lies and threateningOn your mandate we shall stand  till 2031</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,7 +1012,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Even truth sound like lies and threateningOn your mandate we shall stand  till 2031</t>
+          <t>Nonsensical talk by a useless man</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Nonsensical talk by a useless man</t>
+          <t>Mad mumu manHow Many of his official embezzled cars runs on CNG?We should spoil our car's engine or risk getting burned in gas explosion 💥DAMNED CNG CAN BE SOLD AT ₦200 PER LITER, BUT COOKING GAS IS ABOUT 6 X MORE EXPENSIVE.CNG THAT'S EVEN MORE DIFFICULT  AND EXPENSIVE TO MAKE THAN COOKING GAS.THESE LEADERS ARE JUST FOOLISH AND EVIL.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,7 +1036,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mad mumu manHow Many of his official embezzled cars runs on CNG?We should spoil our car's engine or risk getting burned in gas explosion 💥DAMNED CNG CAN BE SOLD AT ₦200 PER LITER, BUT COOKING GAS IS ABOUT 6 X MORE EXPENSIVE.CNG THAT'S EVEN MORE DIFFICULT  AND EXPENSIVE TO MAKE THAN COOKING GAS.THESE LEADERS ARE JUST FOOLISH AND EVIL.</t>
+          <t>Is that why you have to increase the price of fuel and make it so expensive . incompetent and clueless president</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1048,7 +1048,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Is that why you have to increase the price of fuel and make it so expensive . incompetent and clueless president</t>
+          <t>Baba don change strategy he dey blow Nigerians still dey show us where to fall 😂😂</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,7 +1060,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Baba don change strategy he dey blow Nigerians still dey show us where to fall 😂😂</t>
+          <t>Where is petrol being sold for 1000? Always talking senselessly!</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,7 +1072,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Where is petrol being sold for 1000? Always talking senselessly!</t>
+          <t>Chai. I'm only concerned with the safety aspect. CNG isn't what the whole country will just rush into like that. Might end up a disaster than boko haram</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Chai. I'm only concerned with the safety aspect. CNG isn't what the whole country will just rush into like that. Might end up a disaster than boko haram</t>
+          <t>The CNG gas cylinder alone to purchase it for your car is from 300,000 naira above.. how many nigerians can afford it at this hard time....</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>The CNG gas cylinder alone to purchase it for your car is from 300,000 naira above.. how many nigerians can afford it at this hard time....</t>
+          <t>Cng wey dey explode. Thunder fire you</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cng wey dey explode. Thunder fire you</t>
+          <t>Lol, their agents are here opening accounts. They did the same during Buhari regime.They hardly support good governance. The open fake accounts and bots to support bad governance while talking down on Peter Obi. The only active presidential candidate since last year.80 people burn to aches….una president dey snap picture for Aso rock.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lol, their agents are here opening accounts. They did the same during Buhari regime.They hardly support good governance. The open fake accounts and bots to support bad governance while talking down on Peter Obi. The only active presidential candidate since last year.80 people burn to aches….una president dey snap picture for Aso rock.</t>
+          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,7 +1132,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
+          <t>searchng4love:Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>searchng4love:Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.</t>
+          <t>searchng4love:High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,7 +1156,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>searchng4love:High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.</t>
+          <t>searchng4love:Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1168,7 +1168,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>searchng4love:Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.</t>
+          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1180,7 +1180,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
+          <t>searchng4love:1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>searchng4love:1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”</t>
+          <t>searchng4love:I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1204,7 +1204,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>searchng4love:I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.</t>
+          <t>Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.</t>
+          <t>Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.</t>
+          <t>High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1240,7 +1240,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.</t>
+          <t>Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.</t>
+          <t>Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1264,7 +1264,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.</t>
+          <t>Another CNG explosion in Pakistanhttps://www.instagram.com/reel/Cybr9jbs_ls/?utm_source=ig_web_copy_link</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,7 +1276,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Another CNG explosion in Pakistanhttps://www.instagram.com/reel/Cybr9jbs_ls/?utm_source=ig_web_copy_link</t>
+          <t>1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1288,7 +1288,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”</t>
+          <t>Another CNG explosion</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,7 +1300,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Another CNG explosion</t>
+          <t>Gas cylinder of a Cobalt car exploded in Navoi; a three-year-old child died December 25/2023</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Gas cylinder of a Cobalt car exploded in Navoi; a three-year-old child died December 25/2023</t>
+          <t>searchng4love:Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.This used to be a problem in the past, but now overcome by programming the petrol injectors to compensate for power loss at the power band, or at a predetermined rpm.</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1324,7 +1324,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>searchng4love:Decreased Efficiency and StrengthThis is one of the disadvantages of converting petrol cars to CNG cars. The possible loss of power and performance when switching from petrol to CNG is a major disadvantage.Compressed natural gas (CNG) has a lower energy density than gasoline. As such, cars powered by CNG may have less horsepower.For drivers who value performance, this power loss may be a major problem and have an impact on the whole driving experience.This used to be a problem in the past, but now overcome by programming the petrol injectors to compensate for power loss at the power band, or at a predetermined rpm.</t>
+          <t>searchng4love:High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1336,7 +1336,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>searchng4love:High Costs of ConversionThis is also one of the disadvantages of converting petrol cars to CNG cars. The initial cost of converting a gasoline-powered vehicle to run on compressed natural gas is high.It can be expensive to convert the car with CNG-compatible parts, like a high-pressure tank and fuel system adjustments.Even while there can be long-term fuel cost reductions, some prospective users might be discouraged by the conversion’s upfront costs.Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?</t>
+          <t>searchng4love:Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.The only replacement part is the CNG filter, and it is every 10-20k miles .Every state that has is a CNG refill station has a CNG repair facility .</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1348,7 +1348,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>searchng4love:Upkeep DifficultiesThis is one of the disadvantages of converting petrol cars to CNG cars. Vehicles with CNG systems need specific upkeep and servicing. CNG operates at high pressure, as such, some parts may experience increased wear and tear, calling for routine maintenance and inspections by qualified specialists.In certain places, it may be difficult to find certified mechanics with CNG system knowledge. This could cause maintenance problems for owners of CNG vehicles.The only replacement part is the CNG filter, and it is every 10-20k miles .Every state that has is a CNG refill station has a CNG repair facility .</t>
+          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.Still better than burning diesel or petrol .</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.Still better than burning diesel or petrol .</t>
+          <t>searchng4love:1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”There have been no documented CNG explosions in Nigeria since 2009.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1372,7 +1372,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>searchng4love:1 killed, two hurt in explosion at CNG station in MansaEyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Bathinda An employee at a compressed natural gas (CNG) filling station in Mansa was killed and two others gravely injured in an explosion at the station on Sunday evening. The victim, Vikram Singh, was filling gas in an Alto car when the explosion took place at the facility named Jagdish Oil Company. The injured were rushed to the Mansa CivilSources said the victim, killed on the spot, was thrown up over 20-feet due to the high-pressure of the gas. The roof of one of the cars was also blown off, with another vehicle also damaged. Eyewitnesses said there was no fire at the filling station, located in a densely-populated area near the bus stand. After the blast, the police cordoned off the area.Filling station owner Jagmohan Kumar said, “More lives would have been lost, if we had not followed the protocol related to the filling of gas, which mandates that no one must to be present inside the vehicle, when gas is being filled.”There have been no documented CNG explosions in Nigeria since 2009.</t>
+          <t>GAZZUZZ:There have been no documented CNG explosions in Nigeria since 2009.I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GAZZUZZ:There have been no documented CNG explosions in Nigeria since 2009.I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.</t>
+          <t>searchng4love:I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.Leaks are common in contraptions like this, but not explosions from refill.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>searchng4love:I have seen passengers in a CNG bus run for their dear lives during a refill at ibafo, even the attendants panicked.Leaks are common in contraptions like this, but not explosions from refill.</t>
+          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1408,7 +1408,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
+          <t>shomutuski:Can be very risky, if you are caught in a traffic jam with the heat condition</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1420,7 +1420,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>shomutuski:Can be very risky, if you are caught in a traffic jam with the heat condition</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
+          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1444,7 +1444,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
+          <t>Caseless:How is he responsible for this? Did he make the price go up?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1456,7 +1456,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Caseless:How is he responsible for this? Did he make the price go up?</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1468,7 +1468,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
+          <t>lildush:I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n pray</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1480,7 +1480,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>lildush:I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n pray</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1492,7 +1492,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZc</t>
+          <t>GAZZUZZ:NO! CNG is stored at over 3,600psi while most working pressure for lpg is about 250psi</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1504,7 +1504,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>GAZZUZZ:NO! CNG is stored at over 3,600psi while most working pressure for lpg is about 250psi</t>
+          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Eriokanmi:Dey deceive yourself and be using lies to advertise CNG. Is it not same Akure i know? Did you pass through ilesha-Ife highway at all? If I could try it on generator and there was no significant difference, I wonder how it could work on automobile.  When the cng was first  being over-hyped here. I tackled the OP. Later when some Nigerians got carborateur and tried to convert their petrol gen to cng,  they dropped the idea and kept silent.Even in the USA, the country we used to copy in everything, there are barely 2,000 cng refuelling stations there. Today, petrol and diesel remain efficient means of powering automobile engines. Any Nigerian who falls for this lie the way they fell for the generator would only throw away money once again.</t>
+          <t>CNG in a cylinder inside a car.Hope it won't go kaboom one day?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1528,7 +1528,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CNG in a cylinder inside a car.Hope it won't go kaboom one day?</t>
+          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....How is he responsible for this? Did he make the price go up?</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1540,7 +1540,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....How is he responsible for this? Did he make the price go up?</t>
+          <t>This CNG has always been there, looks like a pipe dream though.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -1552,7 +1552,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>This CNG has always been there, looks like a pipe dream though.</t>
+          <t>shomutuski:Can be very risky, if you are caught in a traffic jam with the heat conditionYou have Data to back this up?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1564,7 +1564,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>shomutuski:Can be very risky, if you are caught in a traffic jam with the heat conditionYou have Data to back this up?</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcSince 2009 Lagos to Ibadan to mowe ibafo buses have not exploded .</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1576,7 +1576,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcSince 2009 Lagos to Ibadan to mowe ibafo buses have not exploded .</t>
+          <t>Caseless:How is he responsible for this? Did he make the price go up?He contributed....!</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1588,7 +1588,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Caseless:How is he responsible for this? Did he make the price go up?He contributed....!</t>
+          <t>I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n pray</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -1600,7 +1600,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n pray</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcoh boy, this thing dey dangerous like this,</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -1612,7 +1612,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcoh boy, this thing dey dangerous like this,</t>
+          <t>lildush:I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n prayhmmmm</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>lildush:I will stick to my PMS. Even if it rises to 2000 per liter. Gaskiya have to many disadvantages.. it's to risky. It's cheaper now because it's not in use. Wen NIGERIANs start using it. This evil marketers will take the price to 600 naira in 3months. Dat is wat will happen. Watch n prayhmmmm</t>
+          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcIn every industry, there will always be standards and sub standards.Type 1 tanks made by reputable manufacturers have an over 10year life span.CNG is safe, I am sure you noticed there were no fires in both instances , just part failures caused by substandard parts.Flash point-187.80C CNG temperature. Burning point is the lowest temperature at which sufficient oxygen conditions, spontaneous combustion can occur</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Angrygoat:I'd rather use hybrid than gas. Nigeria is damn hot coupled with heat from exhaust,tyres,bad roads,bad drivers who would run into your rear,yahoo boys wreckless driving under influence of colos with the aim to kill passers by,shop owners,houses.u will just die by yourself when the cylinder explodes.u won't survive it.https://www.youtube.com/watch?v=5-nOPvXiIWQ&amp;pp=ygUNQ25nIGV4cGxvc2lvbg%3D%3Dhttps://www.youtube.com/watch?v=aJ6ItsHpTZcIn every industry, there will always be standards and sub standards.Type 1 tanks made by reputable manufacturers have an over 10year life span.CNG is safe, I am sure you noticed there were no fires in both instances , just part failures caused by substandard parts.Flash point-187.80C CNG temperature. Burning point is the lowest temperature at which sufficient oxygen conditions, spontaneous combustion can occur</t>
+          <t>avast01:Can CNG be bought in normal cooking gas cylinders ??And can it be used for cooking ?NO! CNG is stored at over 3,600psi while most working pressure for lpg is about 250psi</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>doggedfighter:Very cheap</t>
+          <t>Motivational TalkDon't buy converted CNG cars , buy the follow come</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -1660,7 +1660,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Can it b done on an MDX n will it b cheaper than gas?</t>
+          <t>Nah make e no start skyrocketing soon</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>You carry this small motor dey drive 120 km.</t>
+          <t>Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6oThis is beautiful Gazzuz</t>
+          <t>With that small car. I no bleaf</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Motivational TalkDon't buy converted CNG cars , buy the follow come</t>
+          <t>Dey play</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Nah make e no start skyrocketing soon</t>
+          <t>doggedfighter:Very cheap</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then.</t>
+          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1732,7 +1732,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>With that small car. I no bleaf</t>
+          <t>GAZZUZZ:Type my name on Google maps</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -1744,7 +1744,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Dey play</t>
+          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -1756,7 +1756,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>doggedfighter:Very cheap</t>
+          <t>GAZZUZZ:CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNG</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -1768,7 +1768,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?</t>
+          <t>NwokoloOwa:I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Type my name on Google maps</t>
+          <t>The Nigerian factor will soon take over and the price will rise.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?</t>
+          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?Cheaper than gas</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GAZZUZZ:CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNG</t>
+          <t>GAZZUZZ:Type my name on Google mapsAlright</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -1816,7 +1816,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NwokoloOwa:I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500</t>
+          <t>Pls how do I get in touch with you ? Want to learn about it</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>The Nigerian factor will soon take over and the price will rise.</t>
+          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?It is a Gas already Sirwe have 2 type of gases,  CNG and LNG,The OP makes use of the CNG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?Cheaper than gas</t>
+          <t>You should have used 3.5l V6 vehicle</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -1852,7 +1852,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Type my name on Google mapsAlright</t>
+          <t>GAZZUZZ:CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNGOnly novice will call you a lier ...I once worked at a power plant here in Lagos ... anytime there's gas outage and we run the plant on diesel our ogas start crying...we use Jenbacher Gen for gas and CAT for diesel</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Pls how do I get in touch with you ? Want to learn about it</t>
+          <t>Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then.Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then....</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -1876,7 +1876,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>blackbone989:Can it b done on an MDX n will it b cheaper than gas?It is a Gas already Sirwe have 2 type of gases,  CNG and LNG,The OP makes use of the CNG</t>
+          <t>[quote author=GAZZUZZ post=127135727][/quote]So na you come my station yesterdayWelcome to the cng life</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -1888,7 +1888,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>You should have used 3.5l V6 vehicle</t>
+          <t>NwokoloOwa:I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500Hmmm, still fair enough</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GAZZUZZ:CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNGOnly novice will call you a lier ...I once worked at a power plant here in Lagos ... anytime there's gas outage and we run the plant on diesel our ogas start crying...we use Jenbacher Gen for gas and CAT for diesel</t>
+          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6o</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then.Watin we come dey wait for. Let the filling station begin to roll out nationwide wide then....</t>
+          <t>forgiveness:Which is cheaper between CNG and diesel?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -1924,7 +1924,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[quote author=GAZZUZZ post=127135727][/quote]So na you come my station yesterdayWelcome to the cng life</t>
+          <t>Babangidapikin:Are you saying there won't be any future problem with it, don't think I am condemning you, after all my Oga at the Top Alhaji uses CNG for his trucks , I am just saying full disclosure is very important, at least you can talk to the FG and do three months or six months test run , as it is you don't know what might or might not go wrong and you know in Nigeria things are always different.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1936,7 +1936,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NwokoloOwa:I made my assertions having in mind a 1.8l car like the corolla or civic.For your big SUV the CNG equivalent will be 25% of N30k = N7,500Hmmm, still fair enough</t>
+          <t>Eriokanmi:I don't have to bro. Even in the USA where I visit all the time. They have less than 2,000 cng fefuelling stations nationwide.  I'd have done that test drive with you with an electric car but we're not there yet, not cng</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -1948,7 +1948,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6o</t>
+          <t>ejieddy:Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1960,7 +1960,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>forgiveness:Which is cheaper between CNG and diesel?</t>
+          <t>GAZZUZZ:research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coal</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -1972,7 +1972,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Babangidapikin:Are you saying there won't be any future problem with it, don't think I am condemning you, after all my Oga at the Top Alhaji uses CNG for his trucks , I am just saying full disclosure is very important, at least you can talk to the FG and do three months or six months test run , as it is you don't know what might or might not go wrong and you know in Nigeria things are always different.</t>
+          <t>Auskyd:Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1984,7 +1984,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Eriokanmi:I don't have to bro. Even in the USA where I visit all the time. They have less than 2,000 cng fefuelling stations nationwide.  I'd have done that test drive with you with an electric car but we're not there yet, not cng</t>
+          <t>bizzibodi:Me self spent #800 from Lagos to lokoja using a fuel cell I invented on my car using my urine as source of fuel.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ejieddy:Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.</t>
+          <t>Eriokanmi:My SUV will stop at Ile Ife on CNG. This I know. Let someone with an electric means of powering an engine come then, maybe I'd listen.  This is the area our government should invest in cos of the capital involvement. I don't know why people are so easily deceived in this country</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2008,7 +2008,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GAZZUZZ:research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coal</t>
+          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6oYou are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I am sending this information to people that matter for the consideration of your recommendations.Well done!</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2020,7 +2020,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Auskyd:Did you perhaps think of the possibility that he bought those things when dollar was at 1200 and not the current rate? Did you see the weeks it took to order and for them to arrive?Will you check again or just decide to replace your cerebrospinal fluid with ice water?</t>
+          <t>forgiveness:Which is cheaper between CNG and diesel?CNG is 80 percent cheaper</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -2032,7 +2032,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>bizzibodi:Me self spent #800 from Lagos to lokoja using a fuel cell I invented on my car using my urine as source of fuel.</t>
+          <t>Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Eriokanmi:My SUV will stop at Ile Ife on CNG. This I know. Let someone with an electric means of powering an engine come then, maybe I'd listen.  This is the area our government should invest in cos of the capital involvement. I don't know why people are so easily deceived in this country</t>
+          <t>The government is talking too much with little action. For same distance of about 250 km by appro. N2500 worth of CNG, you will need about N10,000 worth of petrol or diesel. CNG is just about 25% of petrol or diesel. Imagine if trailers and buses cut their fuel consumption by 75%!. Imagine what the effect it will have on transportation of goods and people. And the effect on the economy.So many opportunities waiting to be given the enabling environment and policy, and we are good to BLAST as a nation.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6oYou are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I am sending this information to people that matter for the consideration of your recommendations.Well done!</t>
+          <t>Babangidapikin:Are you saying there won't be any future problem with it, don't think I am condemning you, after all my Oga at the Top Alhaji uses CNG for his trucks , I am just saying full disclosure is very important, at least you can talk to the FG and do three months or six months test run , as it is you don't know what might or might not go wrong and you know in Nigeria things are always different.research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coal</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -2068,7 +2068,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>forgiveness:Which is cheaper between CNG and diesel?CNG is 80 percent cheaper</t>
+          <t>Eriokanmi:I don't have to bro. Even in the USA where I visit all the time. They have less than 2,000 cng fefuelling stations nationwide.  I'd have done that test drive with you with an electric car but we're not there yet, not cngtypical Nigerian .</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -2080,7 +2080,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.</t>
+          <t>ejieddy:Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNG</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2092,7 +2092,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>The government is talking too much with little action. For same distance of about 250 km by appro. N2500 worth of CNG, you will need about N10,000 worth of petrol or diesel. CNG is just about 25% of petrol or diesel. Imagine if trailers and buses cut their fuel consumption by 75%!. Imagine what the effect it will have on transportation of goods and people. And the effect on the economy.So many opportunities waiting to be given the enabling environment and policy, and we are good to BLAST as a nation.</t>
+          <t>Drue23 baba</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Babangidapikin:Are you saying there won't be any future problem with it, don't think I am condemning you, after all my Oga at the Top Alhaji uses CNG for his trucks , I am just saying full disclosure is very important, at least you can talk to the FG and do three months or six months test run , as it is you don't know what might or might not go wrong and you know in Nigeria things are always different.research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coal</t>
+          <t>GAZZUZZ:research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coalOkay</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2116,7 +2116,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Eriokanmi:I don't have to bro. Even in the USA where I visit all the time. They have less than 2,000 cng fefuelling stations nationwide.  I'd have done that test drive with you with an electric car but we're not there yet, not cngtypical Nigerian .</t>
+          <t>bizzibodi:Me self spent #800 from Lagos to lokoja using a fuel cell I invented on my car using my urine as source of fuel.HmmmmmMake una dey take am easy abeg</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ejieddy:Nice write up but it needs to be verified by other people. I don't see a lot of people talking about the benefits of the CNG generator when it was a rave. How come you spent that amount? That's the amount for about 3kg of LPG. I don't know if CNG and LPG sells for same amount.Secondly, you said CNG doesn't require refinery. Well, both filtration and fractional distillation are separation techniques. If it requires filtration, that's also refining. It may not be a s complex as fractional distillation but it's not like a borehole you put a pipe down and just get clean water. It has to go through a process and that process itself is refining.CNG sells for between 200-270 per SCM .100per natural gas generators are used by e.g the RCCG to supply power to the camp and environs, another example is BHN in ikorodu generates and supplies power to local factories in ikorodu using GAS generators powered by CNG.Presently most serious manufacturers run their generators on CNG</t>
+          <t>If there is good railway network, we no go need all this wahala</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2140,7 +2140,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Drue23 baba</t>
+          <t>Great idea and post, but the initial cost to convert na fire !how many Nigerians would wanna go for that cost of 1mil.or a bit less ?let the government come on board for subsidy .that might calm.sown nerves and bring in more patronage but as it is , that high cost is gonna be a MO NO FOR US HERE..NA ONLY THE RICH GO STILL GO THAT WAY.the average won't even look that way at all .</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2152,7 +2152,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>GAZZUZZ:research was done before I jumped into this.Check my older videos on my page, they are self explanatory.There is a lower maintenance cost on CNG than on petrol or diesel or coalOkay</t>
+          <t>Eriokanmi:My SUV will stop at Ile Ife on CNG. This I know. Let someone with an electric means of powering an engine come then, maybe I'd listen.  This is the area our government should invest in cos of the capital involvement. I don't know why people are so easily deceived in this countryYou mean CNG burns faster than petrol?</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2164,7 +2164,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>bizzibodi:Me self spent #800 from Lagos to lokoja using a fuel cell I invented on my car using my urine as source of fuel.HmmmmmMake una dey take am easy abeg</t>
+          <t>President Bola Tinubu has told Nigerian motorists to either buy petrol at N1000 or the compressed Natural Gas (CNG) at N200.The President said this during a meeting with the company’s executive on Tuesday at the State House, Abuja.He also praised NIPCO’s contributions to the nation’s energy transition efforts, particularly its support for the Presidential Compressed Natural Gas Initiative (PCNGI).During the meeting, President Tinubu acknowledged NIPCO’s role as a critical player in enhancing the adoption of CNG as an alternative fuel.He noted that such investments aligned with his administration’s energy security and economic diversification strategy.The President emphasised the importance of public-private partnerships in driving the transition to cleaner and more affordable energy solutions for Nigerians.He highlighted the significance of the initiative in reducing the nation’s reliance on petrol and cutting down fuel costs for consumers.“CNG, being a cleaner and more affordable fuel, reduces the carbon footprint and saves consumers significant fuel costs.“Nigeria’s motorists can buy petrol at N1,000 per litre or equivalent gas per Standard Cubic Meter at N200.“We have also introduced incentives for commercial motorists to convert from petrol to gas ‘free of cost,’”Tinubu said.He reaffirmed his administration’s commitment to providing a conducive environment for private sector investments and expanding Nigeria’s CNG infrastructure to enhance energy efficiency and economic growth.He further encouraged NIPCO to continue its innovative approach to CNG expansion while supporting the government’s broader goals in the energy sector.Mr Ramesh Kasangra, NIPCO’s director, who led the delegation, thanked Tinubu for his steadfast support for the CNG sector.He expressed NIPCO’s commitment to furthering the partnership with the government to ensure Nigeria’s energy transition remained on track.He assured the President that the company was ready to invest in infrastructure to make CNG more accessible nationwide.According to him,NIPCO has been a key player in various sectors of Nigeria for over four decades and will continue to believe in Nigeria for the long term.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>If there is good railway network, we no go need all this wahala</t>
+          <t>odejimioflagos:Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Great idea and post, but the initial cost to convert na fire !how many Nigerians would wanna go for that cost of 1mil.or a bit less ?let the government come on board for subsidy .that might calm.sown nerves and bring in more patronage but as it is , that high cost is gonna be a MO NO FOR US HERE..NA ONLY THE RICH GO STILL GO THAT WAY.the average won't even look that way at all .</t>
+          <t>adenigga:Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-Nigerians</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2200,7 +2200,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Eriokanmi:My SUV will stop at Ile Ife on CNG. This I know. Let someone with an electric means of powering an engine come then, maybe I'd listen.  This is the area our government should invest in cos of the capital involvement. I don't know why people are so easily deceived in this countryYou mean CNG burns faster than petrol?</t>
+          <t>President Bola Tinubu has told Nigerian motorists to either buy petrol at N1000 or the compressed Natural Gas (CNG) at N200.The President said this during a meeting with the company’s executive on Tuesday at the State House, Abuja.He also praised NIPCO’s contributions to the nation’s energy transition efforts, particularly its support for the Presidential Compressed Natural Gas Initiative (PCNGI).During the meeting, President Tinubu acknowledged NIPCO’s role as a critical player in enhancing the adoption of CNG as an alternative fuel.He noted that such investments aligned with his administration’s energy security and economic diversification strategy.The President emphasised the importance of public-private partnerships in driving the transition to cleaner and more affordable energy solutions for Nigerians.He highlighted the significance of the initiative in reducing the nation’s reliance on petrol and cutting down fuel costs for consumers.“CNG, being a cleaner and more affordable fuel, reduces the carbon footprint and saves consumers significant fuel costs.“Nigeria’s motorists can buy petrol at N1,000 per litre or equivalent gas per Standard Cubic Meter at N200.“We have also introduced incentives for commercial motorists to convert from petrol to gas ‘free of cost,’”Tinubu said.He reaffirmed his administration’s commitment to providing a conducive environment for private sector investments and expanding Nigeria’s CNG infrastructure to enhance energy efficiency and economic growth.He further encouraged NIPCO to continue its innovative approach to CNG expansion while supporting the government’s broader goals in the energy sector.Mr Ramesh Kasangra, NIPCO’s director, who led the delegation, thanked Tinubu for his steadfast support for the CNG sector.He expressed NIPCO’s commitment to furthering the partnership with the government to ensure Nigeria’s energy transition remained on track.He assured the President that the company was ready to invest in infrastructure to make CNG more accessible nationwide.According to him,NIPCO has been a key player in various sectors of Nigeria for over four decades and will continue to believe in Nigeria for the long term.Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-Nigerians</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2212,7 +2212,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>President Bola Tinubu has told Nigerian motorists to either buy petrol at N1000 or the compressed Natural Gas (CNG) at N200.The President said this during a meeting with the company’s executive on Tuesday at the State House, Abuja.He also praised NIPCO’s contributions to the nation’s energy transition efforts, particularly its support for the Presidential Compressed Natural Gas Initiative (PCNGI).During the meeting, President Tinubu acknowledged NIPCO’s role as a critical player in enhancing the adoption of CNG as an alternative fuel.He noted that such investments aligned with his administration’s energy security and economic diversification strategy.The President emphasised the importance of public-private partnerships in driving the transition to cleaner and more affordable energy solutions for Nigerians.He highlighted the significance of the initiative in reducing the nation’s reliance on petrol and cutting down fuel costs for consumers.“CNG, being a cleaner and more affordable fuel, reduces the carbon footprint and saves consumers significant fuel costs.“Nigeria’s motorists can buy petrol at N1,000 per litre or equivalent gas per Standard Cubic Meter at N200.“We have also introduced incentives for commercial motorists to convert from petrol to gas ‘free of cost,’”Tinubu said.He reaffirmed his administration’s commitment to providing a conducive environment for private sector investments and expanding Nigeria’s CNG infrastructure to enhance energy efficiency and economic growth.He further encouraged NIPCO to continue its innovative approach to CNG expansion while supporting the government’s broader goals in the energy sector.Mr Ramesh Kasangra, NIPCO’s director, who led the delegation, thanked Tinubu for his steadfast support for the CNG sector.He expressed NIPCO’s commitment to furthering the partnership with the government to ensure Nigeria’s energy transition remained on track.He assured the President that the company was ready to invest in infrastructure to make CNG more accessible nationwide.According to him,NIPCO has been a key player in various sectors of Nigeria for over four decades and will continue to believe in Nigeria for the long term.</t>
+          <t>Nigerians should embrace CNG and let the market dictate the price of petrol.Tinubu is doing the right thing by giving Nigerians the option and letting them know the alternative.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2224,7 +2224,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>odejimioflagos:Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.</t>
+          <t>Somebody mentioned here that the day Nigerians start becoming more aware, start rushing CNG instead of fuel , that tinubu will increase the price and make it at par with Petrol. That person is right and have been vindicated by this statement from tinubu…if we can predict based on tinubu antecedent of abysmally ruining everything he touches , then we can predict that CNG will get to 700-800 naira by March starting from now on</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2236,7 +2236,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>adenigga:Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-Nigerians</t>
+          <t>Petrol is not even ₦1000 per litre .Hire me for your academic writing</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>President Bola Tinubu has told Nigerian motorists to either buy petrol at N1000 or the compressed Natural Gas (CNG) at N200.The President said this during a meeting with the company’s executive on Tuesday at the State House, Abuja.He also praised NIPCO’s contributions to the nation’s energy transition efforts, particularly its support for the Presidential Compressed Natural Gas Initiative (PCNGI).During the meeting, President Tinubu acknowledged NIPCO’s role as a critical player in enhancing the adoption of CNG as an alternative fuel.He noted that such investments aligned with his administration’s energy security and economic diversification strategy.The President emphasised the importance of public-private partnerships in driving the transition to cleaner and more affordable energy solutions for Nigerians.He highlighted the significance of the initiative in reducing the nation’s reliance on petrol and cutting down fuel costs for consumers.“CNG, being a cleaner and more affordable fuel, reduces the carbon footprint and saves consumers significant fuel costs.“Nigeria’s motorists can buy petrol at N1,000 per litre or equivalent gas per Standard Cubic Meter at N200.“We have also introduced incentives for commercial motorists to convert from petrol to gas ‘free of cost,’”Tinubu said.He reaffirmed his administration’s commitment to providing a conducive environment for private sector investments and expanding Nigeria’s CNG infrastructure to enhance energy efficiency and economic growth.He further encouraged NIPCO to continue its innovative approach to CNG expansion while supporting the government’s broader goals in the energy sector.Mr Ramesh Kasangra, NIPCO’s director, who led the delegation, thanked Tinubu for his steadfast support for the CNG sector.He expressed NIPCO’s commitment to furthering the partnership with the government to ensure Nigeria’s energy transition remained on track.He assured the President that the company was ready to invest in infrastructure to make CNG more accessible nationwide.According to him,NIPCO has been a key player in various sectors of Nigeria for over four decades and will continue to believe in Nigeria for the long term.Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-Nigerians</t>
+          <t>helinues:TohNo be small toh o</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nigerians should embrace CNG and let the market dictate the price of petrol.Tinubu is doing the right thing by giving Nigerians the option and letting them know the alternative.</t>
+          <t>Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2272,7 +2272,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Somebody mentioned here that the day Nigerians start becoming more aware, start rushing CNG instead of fuel , that tinubu will increase the price and make it at par with Petrol. That person is right and have been vindicated by this statement from tinubu…if we can predict based on tinubu antecedent of abysmally ruining everything he touches , then we can predict that CNG will get to 700-800 naira by March starting from now on</t>
+          <t>odejimioflagos:Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.Have Tinubu embrace CNG.Is his new all-black armoured Cadillac Escalade SUV CNG powered?</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2284,7 +2284,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Petrol is not even ₦1000 per litre .Hire me for your academic writing</t>
+          <t>Aiye Tinubu ti daru ooo</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>helinues:TohNo be small toh o</t>
+          <t>Really?</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.</t>
+          <t>Has Tinubu converted his cars to CNG?</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -2320,7 +2320,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>odejimioflagos:Nigerians should embrace the CNG. It is a cleaner and cheaper alternative.Have Tinubu embrace CNG.Is his new all-black armoured Cadillac Escalade SUV CNG powered?</t>
+          <t>adenigga:Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-NigeriansBuy CNG at where in Akwa Ibom? Last time I checked, the governor said he was still searching for a reputable company that will invest in the state in that regard</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -2332,7 +2332,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Aiye Tinubu ti daru ooo</t>
+          <t>Eleribu somebody</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -2344,7 +2344,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Really?</t>
+          <t>searchng4love:Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -2356,7 +2356,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Has Tinubu converted his cars to CNG?</t>
+          <t>searchng4love:Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilities</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -2368,7 +2368,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>adenigga:Source:https://vanguardngr.com/Buy-petrol-at-N1,000-per-litre-CNG-at-N200-Tinubu-tells-NigeriansBuy CNG at where in Akwa Ibom? Last time I checked, the governor said he was still searching for a reputable company that will invest in the state in that regard</t>
+          <t>GAZZUZZ:Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500miles</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Eleribu somebody</t>
+          <t>GAZZUZZ:Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -2392,7 +2392,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>searchng4love:Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.</t>
+          <t>searchng4love:Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQ</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2404,7 +2404,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>searchng4love:Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilities</t>
+          <t>GAZZUZZ:There have been no documented CNG explosions in Nigeria since 2009.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -2416,7 +2416,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500miles</t>
+          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten months</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2428,7 +2428,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?</t>
+          <t>What are the disadvantages of converting petrol cars to CNG cars? Automobiles powered by petrol are increasingly being converted to run on compressed natural gas (CNG). CNG is a sustainable fuel option that is becoming more and more popular.Although the transition to cleaner energy is praiseworthy, it is important to consider the side effects of this change.There are disadvantages to switching from petrol to compressed natural gas (CNG). Being aware of these issues is necessary to making well-informed choices on the switch to alternative fuels.What are the Disadvantages of Converting Petrol Cars to CNG Cars?Are you wondering what are the disadvantages of converting petrol cars to CNG cars? Just carefully read below.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>searchng4love:Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQ</t>
+          <t>Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilities</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>GAZZUZZ:There have been no documented CNG explosions in Nigeria since 2009.</t>
+          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.Well articulated pointsOnly thing is.... Do you own and drive a vehicle powered by CNG by virtue of which you have personal experience of the above stated points?</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -2464,7 +2464,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten months</t>
+          <t>Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQ</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>What are the disadvantages of converting petrol cars to CNG cars? Automobiles powered by petrol are increasingly being converted to run on compressed natural gas (CNG). CNG is a sustainable fuel option that is becoming more and more popular.Although the transition to cleaner energy is praiseworthy, it is important to consider the side effects of this change.There are disadvantages to switching from petrol to compressed natural gas (CNG). Being aware of these issues is necessary to making well-informed choices on the switch to alternative fuels.What are the Disadvantages of Converting Petrol Cars to CNG Cars?Are you wondering what are the disadvantages of converting petrol cars to CNG cars? Just carefully read below.</t>
+          <t>While I am not discouraging the CNG conversion going around every nook and cranny of Nigeria at the moment.... I just wanted to bring to our attention the flip side of the CNG use in automobiles.Personally I will rather opt for fuel efficient petrol vehicles instead of the likely ticking time bombs... I'd never be comfortable in one of those CNG cars...given the error prone rate of our kazeems who cannot even properly wire a car.....Peugeot 206, 307 are ultra fuel efficientHonda Civic City are extremely fuel efficientAll Mercedes Benz 4 cylinder engine cars are extremely fuel efficientToyota Corolla Avensis are fairly fuel efficient.Just my two piece.... Happy New Year in advance</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -2488,7 +2488,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilities</t>
+          <t>have you shown Gazzuzz, dru23, nurey and other key stakeholder this review?</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2500,7 +2500,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>searchng4love:Environmental IssuesThis is one of the disadvantages of converting petrol cars to CNG cars. Even though CNG is typically thought of as a greener fuel than petrol, there are environmental effects associated with the extraction and delivery of this fuel.The main ingredient of natural gas, methane, is a strong greenhouse gas. Some of the environmental benefits associated with CNG vehicles may be countered by methane leaks that occur during the production and delivery of natural gas.Well articulated pointsOnly thing is.... Do you own and drive a vehicle powered by CNG by virtue of which you have personal experience of the above stated points?</t>
+          <t>searchng4love:Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500miles</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -2512,7 +2512,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQ</t>
+          <t>searchng4love:Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilitiesCreating refueling options for vehicles converted by gazzuzz autos. Withing mainland Lagos at slightly higher than normal prices .</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -2524,7 +2524,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>While I am not discouraging the CNG conversion going around every nook and cranny of Nigeria at the moment.... I just wanted to bring to our attention the flip side of the CNG use in automobiles.Personally I will rather opt for fuel efficient petrol vehicles instead of the likely ticking time bombs... I'd never be comfortable in one of those CNG cars...given the error prone rate of our kazeems who cannot even properly wire a car.....Peugeot 206, 307 are ultra fuel efficientHonda Civic City are extremely fuel efficientAll Mercedes Benz 4 cylinder engine cars are extremely fuel efficientToyota Corolla Avensis are fairly fuel efficient.Just my two piece.... Happy New Year in advance</t>
+          <t>GAZZUZZ:Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500milesSuffice to have such explosive ordinances in a single location</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>have you shown Gazzuzz, dru23, nurey and other key stakeholder this review?</t>
+          <t>GAZZUZZ:Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?You spent 600,000 and above to save 1.2m in ten months</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -2548,7 +2548,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>searchng4love:Minimal Range of DrivingWhen compared to their gasoline-powered equivalents, CNG vehicles frequently have a shorter driving range.As a result of its lower energy density, CNG necessitates larger storage tanks. This can take up valuable interior space and decrease the amount of trunk space that is accessible.For drivers, having to stop more frequently for refueling can be annoying, particularly on lengthy trips when petrol stations may be few.Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500miles</t>
+          <t>searchng4love:Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQIt is a standard, to stay away from vehicle when refilling.Explosions are always related to substandard tanks. In Nigeria we use type 1 tanks, which are 6-8mm thick and never explode .</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2560,7 +2560,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>searchng4love:Limited FacilitiesRefueling with CNG is not as well-established as it is with petrol. Even if the quantity of CNG refueling stations is steadily rising, it is still far fewer than that of petrol stations.Owners of CNG vehicles may find this restriction difficult, particularly in areas with limited access to refueling facilitiesCreating refueling options for vehicles converted by gazzuzz autos. Withing mainland Lagos at slightly higher than normal prices .</t>
+          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten monthsActually much more, but since I do not pay my self let's call it ₦600,000.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2572,7 +2572,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Design of tanks.What we are used to is 1 massive tank in the trunk, but in more developed CNG environments, you have smaller tanks , as small as 30L inserted in different locations of the vehicle , you even have smaller petrol tanks to accommodate more cng tanks , that way you get ranges as much as 400-500milesSuffice to have such explosive ordinances in a single location</t>
+          <t>RoadMozart:HmmmmmMake una dey take am easy abeg</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2584,7 +2584,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Most Nigerians do not calculate .My Hyundai ix35 costs 35k per week and 140k per month fuel.In 10months this becomes ₦1.4m naira.I installed an 85L CNG tank and kit.Car now averages ₦4100 weekly and ₦16-20k monthly .In 10months ₦200,000.I have saved ₦1,200,000 in ten months.I have had the car since 2012 still under 110k kmWhat is more expensive? Using petrol or converting to CNG ?You spent 600,000 and above to save 1.2m in ten months</t>
+          <t>Gabs7:Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>searchng4love:Lastly ensure you or your kids family and friends don't stay inside the CNG cars during refueling....https://www.youtube.com/watch?v=TG0kncxOTEs?si=a-4Ub0gE1kiV8DGQIt is a standard, to stay away from vehicle when refilling.Explosions are always related to substandard tanks. In Nigeria we use type 1 tanks, which are 6-8mm thick and never explode .</t>
+          <t>GAZZUZZ:We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2608,7 +2608,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten monthsActually much more, but since I do not pay my self let's call it ₦600,000.</t>
+          <t>GAZZUZZ:You have Data to back this up?</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -2620,7 +2620,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>RoadMozart:HmmmmmMake una dey take am easy abeg</t>
+          <t>avast01:Can CNG be bought in normal cooking gas cylinders ??And can it be used for cooking ?</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Gabs7:Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?</t>
+          <t>dicksonadams:hmmmm</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -2644,7 +2644,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>GAZZUZZ:We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?</t>
+          <t>avast01:are there cng cylinders for home use then ?And do you know if these are available in nigeria ??</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GAZZUZZ:You have Data to back this up?</t>
+          <t>GAZZUZZ:Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -2668,7 +2668,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>avast01:Can CNG be bought in normal cooking gas cylinders ??And can it be used for cooking ?</t>
+          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6o</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -2680,7 +2680,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dicksonadams:hmmmm</t>
+          <t>GAZZUZZ:Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -2692,7 +2692,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>avast01:are there cng cylinders for home use then ?And do you know if these are available in nigeria ??</t>
+          <t>GloriousGbola:Man wey sabi.This is the wayWe have no business looking to western nations for infrastructure solutions. Anything that works in India will work in Nigeria out of the box.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -2704,7 +2704,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .</t>
+          <t>Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -2716,7 +2716,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6o</t>
+          <t>RoadMozart:HmmmmmMake una dey take am easy abeg</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .</t>
+          <t>Guys where can one buy in CNG GAS IN LAGOSDo they have CNG GAS  STATION IN LAGOS</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>GloriousGbola:Man wey sabi.This is the wayWe have no business looking to western nations for infrastructure solutions. Anything that works in India will work in Nigeria out of the box.</t>
+          <t>You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -2752,7 +2752,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?</t>
+          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -2764,7 +2764,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RoadMozart:HmmmmmMake una dey take am easy abeg</t>
+          <t>GAZZUZZ:We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?I wish we ha discussion in the beginning before CNG became a thing!</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -2776,7 +2776,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Guys where can one buy in CNG GAS IN LAGOSDo they have CNG GAS  STATION IN LAGOS</t>
+          <t>GAZZUZZ:You have Data to back this up?Can CNG be bought in normal cooking gas cylinders ??And can it be used for cooking ?</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -2788,7 +2788,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....</t>
+          <t>dicksonadams:hmmmm🤣🤣🤣🤣🤣🤣</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -2800,7 +2800,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Tonididdyx:You this man!... I respect your profeaaionalism and contributions to the AUTO sector but please don't push people into another doom.I recall vividly how you did same "demo" For generators.... We both know how that's ended today!Don't start with cars....We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?</t>
+          <t>avast01:are there cng cylinders for home use then ?And do you know if these are available in nigeria ??Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GAZZUZZ:We should have this discussion.Let's start with what is LPG and what is CNG.Also what are govt policies ?I wish we ha discussion in the beginning before CNG became a thing!</t>
+          <t>GAZZUZZ:Refilling is the main issue, carrying a cylinder in and out of a vehicle is not wise.I have a lot of feasible workable solutions which  have been used In India, I will share once the projects are almost ready. But it's all centered around bringing down cost of electricity via CNG .Thanks</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GAZZUZZ:You have Data to back this up?Can CNG be bought in normal cooking gas cylinders ??And can it be used for cooking ?</t>
+          <t>GAZZUZZ:Lagos- ibadan- abeokuta- , km 45lagos Ibadan express (250km ) on ₦2,438Hyundai I10! 2012Engine size : 1.1LTransmission: 4speed automaticair conditioning onTraffic conditions NOAmount of Gas bought 12.1 SCMPrice N200 per SCM (N2,438)Top speed 120Km/Hrhttps://www.youtube.com/watch?v=e_s3wfQAuOYhttps://www.youtube.com/watch?v=2VtOdgJRj6oKudos baba; you did a clinical job of breaking down the entire process flow inclusive of the economics involved, as usual. You are the best.More power</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>dicksonadams:hmmmm🤣🤣🤣🤣🤣🤣</t>
+          <t>GloriousGbola:Man wey sabi.This is the wayWe have no business looking to western nations for infrastructure solutions. Anything that works in India will work in Nigeria out of the box.bro he imported must of the things he used in making this. even the technical know how nah for oyinbo materials or online resources. we are still dependent on oyinbo. but I am happy one of us can put this resources together to create this. well done sir</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Very cheap</t>
+          <t>Cool</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -2872,7 +2872,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
+          <t>doggedfighter:Very cheapExactly! Especially when he said he drive with AC on throughout the Journey.This his Pathfinding deed has earned him a spot among those focusing of Helping Humanity. If he continues puuting efforts in things like this, he should be included in the listed:https://www.nairaland.com/7920761/why-kolawole-olawuyi-gbebga-adeboye</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -2884,7 +2884,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Nice one</t>
+          <t>Nice one @op.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Cool</t>
+          <t>Bimpe29:Waooo! This is fantabulous. CNG all the way...</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -2908,7 +2908,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Wow</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>doggedfighter:Very cheapExactly! Especially when he said he drive with AC on throughout the Journey.This his Pathfinding deed has earned him a spot among those focusing of Helping Humanity. If he continues puuting efforts in things like this, he should be included in the listed:https://www.nairaland.com/7920761/why-kolawole-olawuyi-gbebga-adeboye</t>
+          <t>Nice one companies should start promoting it</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2932,7 +2932,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Nice one @op.</t>
+          <t>Nice one</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -2944,7 +2944,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Bimpe29:Waooo! This is fantabulous. CNG all the way...</t>
+          <t>Well done to you sir, well done.</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -2956,7 +2956,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
+          <t>Waooo! This is fantabulous. CNG all the way...</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -2968,7 +2968,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Nice one companies should start promoting it</t>
+          <t>Bimpe29:Waooo! This is fantabulous. CNG all the way...I love the enthusiasm</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -2980,7 +2980,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Nice one</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedCan be very risky, if you are caught in a traffic jam with the heat condition</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -2992,7 +2992,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Well done to you sir, well done.</t>
+          <t>Very insightfulIf we get your type like ten on this platform,that will be great.Sadly what this platform breeds most are idiotsNow to your topic.Speaking of incentive,I read somewhere where the govt plans to subsidy the costs abi the installations to 300k.Maybe I’m not to cleared on that.And most importantly,like you said,Nigerians are versatile and all we need as a country to move to the top on top speed is a transparent leaders.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3004,7 +3004,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Waooo! This is fantabulous. CNG all the way...</t>
+          <t>GAZZUZZ am in love with your intelligence</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3016,7 +3016,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Bimpe29:Waooo! This is fantabulous. CNG all the way...I love the enthusiasm</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3028,7 +3028,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedCan be very risky, if you are caught in a traffic jam with the heat condition</t>
+          <t>BreconHills:You are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I amsending this information to people that matter for the consideration of your recommendations.Well done!</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -3040,7 +3040,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Very insightfulIf we get your type like ten on this platform,that will be great.Sadly what this platform breeds most are idiotsNow to your topic.Speaking of incentive,I read somewhere where the govt plans to subsidy the costs abi the installations to 300k.Maybe I’m not to cleared on that.And most importantly,like you said,Nigerians are versatile and all we need as a country to move to the top on top speed is a transparent leaders.</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3052,7 +3052,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>GAZZUZZ am in love with your intelligence</t>
+          <t>afiaonline:The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
+          <t>GAZZUZZ:CNG is 80 percent cheaper</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -3076,7 +3076,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BreconHills:You are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I amsending this information to people that matter for the consideration of your recommendations.Well done!</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedUna don come again with propaganda, every small thing can create 1m jobs, that's how they told us NTA/Star Times decoder installation can create 5m jobs according to Lai Muhammed, so where are the 5m jobs?Stop these talks of job creation when you know that only few people can afford to spend N460k on CNG installation kits</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3088,7 +3088,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implemented</t>
+          <t>Great work you have done Mr. gazzuzNow thee question is... Is the government willing and ready to implement this idea?? Remember this is Nigeria... The politician that would make this work would still be the one to sabotage it for their selfish interest..Anyways it's a great idea and best alternative and I hope the government sincerely and honestly look into it.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3100,7 +3100,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>afiaonline:The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/</t>
+          <t>BreconHills:You are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I amsending this information to people that matter for the consideration of your recommendations.Well done!Appreciated.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3112,7 +3112,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>GAZZUZZ:CNG is 80 percent cheaper</t>
+          <t>This is the better type of news we want to be reading here.Can OP organize trainings for people too at cheaper prices?Let’s liberate ourselves from the shackles of backwardness as a country.OP is sitting on a multimillion dollar-worth of ideas.At least you have practicalized your own rather that if FG and other oil producing states and yeye Ogun State and Lagos State governments who are full of empty promises.A whole Lagos state having just two electric buses. S.hame on them on this.  I expect them to have converted at least 50 buses to CNG in their first phase.Anyway, we know how e dey go.Sone other states are unjust there as figure-head. Only bearing state names for nothing. And the youth ls are there hailing and chanting their use.less governors’ names after being given a party of what legitimately belongs to them.Anyways, this is an opportunity for road-side mechanics too. All the Kazeems, Semius, Sunny mechanic etc too should see this as an opportunity to uprage and add to their pool of knowledge and income.Those who can’t afford the training fee can start watching YouTube videos on retrofitting of CNG ahead of when they would have money for proper training.Those who feel watching only the videos can help them should go ahead and buy the kits and try one on their vehicles.Let’s liberate ourselves.One would be surprised to see how older and younger Oyinbos do all sorts things on a DIY basis.An example is in the video below how a young chap has gone in making battery solar system.I am sure electrical engineers can understand better:https://www.youtube.com/watch?v=D2eXgiakD8U&amp;ab_channel=DavidPozThe internet is full of multi-trillion dollars-worth of free information.Let’s dwell less on social media and utilize the real information on the internet to our advantages.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedUna don come again with propaganda, every small thing can create 1m jobs, that's how they told us NTA/Star Times decoder installation can create 5m jobs according to Lai Muhammed, so where are the 5m jobs?Stop these talks of job creation when you know that only few people can afford to spend N460k on CNG installation kits</t>
+          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedWhy can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3136,7 +3136,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Great work you have done Mr. gazzuzNow thee question is... Is the government willing and ready to implement this idea?? Remember this is Nigeria... The politician that would make this work would still be the one to sabotage it for their selfish interest..Anyways it's a great idea and best alternative and I hope the government sincerely and honestly look into it.</t>
+          <t>The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BreconHills:You are the kind of incredible, curious and hands on person that this country needs to move on. I am now tremendously impressed and encouraged for the future of this country. I amsending this information to people that matter for the consideration of your recommendations.Well done!Appreciated.</t>
+          <t>Hmm,a very good marketing strategy,well done man !</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3160,7 +3160,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>This is the better type of news we want to be reading here.Can OP organize trainings for people too at cheaper prices?Let’s liberate ourselves from the shackles of backwardness as a country.OP is sitting on a multimillion dollar-worth of ideas.At least you have practicalized your own rather that if FG and other oil producing states and yeye Ogun State and Lagos State governments who are full of empty promises.A whole Lagos state having just two electric buses. S.hame on them on this.  I expect them to have converted at least 50 buses to CNG in their first phase.Anyway, we know how e dey go.Sone other states are unjust there as figure-head. Only bearing state names for nothing. And the youth ls are there hailing and chanting their use.less governors’ names after being given a party of what legitimately belongs to them.Anyways, this is an opportunity for road-side mechanics too. All the Kazeems, Semius, Sunny mechanic etc too should see this as an opportunity to uprage and add to their pool of knowledge and income.Those who can’t afford the training fee can start watching YouTube videos on retrofitting of CNG ahead of when they would have money for proper training.Those who feel watching only the videos can help them should go ahead and buy the kits and try one on their vehicles.Let’s liberate ourselves.One would be surprised to see how older and younger Oyinbos do all sorts things on a DIY basis.An example is in the video below how a young chap has gone in making battery solar system.I am sure electrical engineers can understand better:https://www.youtube.com/watch?v=D2eXgiakD8U&amp;ab_channel=DavidPozThe internet is full of multi-trillion dollars-worth of free information.Let’s dwell less on social media and utilize the real information on the internet to our advantages.</t>
+          <t>afiaonline:The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/Scam. It does not work</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>gasparpisciotta:Very enlighteningFG should do more work and less talk on this CNG training and installation kits.This initiative can create 100k jobs if properly implementedWhy can't they just allow the refineries to work so that fuel will drop to abut N45 per liter. Nobody will bother about CNG.</t>
+          <t>This is amazing. I can't wait to finally convert my car to CNG.This post subsidy regime is not for the faint-heartedNo be chais</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -3184,7 +3184,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/</t>
+          <t>GAZZUZZ:CNG is 80 percent cheaperOkay</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -3196,7 +3196,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Hmm,a very good marketing strategy,well done man !</t>
+          <t>This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -3208,7 +3208,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>afiaonline:The CNG may have such challenges but the Fuel Factor X that reduces fuel consumption by 30 percent is something you can always purchase and put in your tank when you want to refill. Thousands of Nigerian drivers have testified about the efficacy of this product. And also, you can use it for your cooking gas, my gas lasts for one month and 2 weeks but my last refill of 12.5kg did 3 months. You can place your order for the FFX by clicking here ---http://afia.ng/ffx/Scam. It does not work</t>
+          <t>The CNG initiative is a welcome development.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -3220,7 +3220,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>This is amazing. I can't wait to finally convert my car to CNG.This post subsidy regime is not for the faint-heartedNo be chais</t>
+          <t>GAZZUZZ:Still better than burning diesel or petrol .</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3232,7 +3232,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>GAZZUZZ:CNG is 80 percent cheaperOkay</t>
+          <t>You have done well sir. Thank you for the information.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -3244,7 +3244,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
+          <t>Interesting.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3256,7 +3256,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>The CNG initiative is a welcome development.</t>
+          <t>GAZZUZZ:Still better than burning diesel or petrol .Green house is green house</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Still better than burning diesel or petrol .</t>
+          <t>MightySparrow:Tinubu is the leader we need. Things are difficult now but I know as a yoruba man. The stock of Awolowo that made SW use television ahead of France, we are in safe hands. People are judging APC by Buhari's performance.I see light with Tinubu.Long live Nigeria.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3280,7 +3280,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>You have done well sir. Thank you for the information.</t>
+          <t>MightySparrow:Tinubu is the leader we need. Things are difficult now but I know as a yoruba man. The stock of Awolowo that made SW use television ahead of France, we are in safe hands. People are judging APC by Buhari's performance.I see light with Tinubu.Long live Nigeria.if I catch you one on one</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -3292,7 +3292,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Interesting.</t>
+          <t>Gazzuzz, nice one. Good job. You're smart!I hope the SA to the CNG initiative, who doubles as the the chair of the FIRS right now would reach out to you to train many Nigerians on this initiative.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3304,7 +3304,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Still better than burning diesel or petrol .Green house is green house</t>
+          <t>Gabs7:Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?I love talking, hit me up.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -3316,7 +3316,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MightySparrow:Tinubu is the leader we need. Things are difficult now but I know as a yoruba man. The stock of Awolowo that made SW use television ahead of France, we are in safe hands. People are judging APC by Buhari's performance.I see light with Tinubu.Long live Nigeria.</t>
+          <t>Thanks so much Gazzuzz for this, your experiment on LPG conversion for generators gave me the confidence to convert my generator. When I saw ur videos on TikTok, I really wanted to know the year of the Hyundai i10 so I could do some calculations on the gains you got from converting it. I'm happy U stated the year on this post.The 2012 i10 has an average fuel efficiency of 32.2 MPG or 13.68 KM per liter according to data from FUELLYdotcom (this data was gotten from 55 vehicles, tracked across 2,651 fuel ups and 568,897 miles).Using this average, that 267km trip you did with N2,450 worth of CNG would have cost you: 267/13.68= 19.5 liters to complete.That is N13,271 at N680 per liter (As sold in my area), an incredible savings of N10, 821!!!, (over 80%).I had already made up my mind to convert my car to CNG cos I had done extensive research on it before now. The only issue was that there were no CNG stations in my State.Luckily, last month a CNG station was commissioned in my state, the very next Local Government to where I stay (39km away).Your videos once again on CNG conversion are timely, I can see the practicality of it all (not just theories and figures I got online), thank you so much.I think I will begin my conversion journey while I try to get those who would partner with me to get a station operational in the town I live.[quote author=GAZZUZZ post=127135727][/quote]</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>MightySparrow:Tinubu is the leader we need. Things are difficult now but I know as a yoruba man. The stock of Awolowo that made SW use television ahead of France, we are in safe hands. People are judging APC by Buhari's performance.I see light with Tinubu.Long live Nigeria.if I catch you one on one</t>
+          <t>davit:Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -3340,7 +3340,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Gazzuzz, nice one. Good job. You're smart!I hope the SA to the CNG initiative, who doubles as the the chair of the FIRS right now would reach out to you to train many Nigerians on this initiative.</t>
+          <t>Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -3352,7 +3352,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Gabs7:Gazzuzz, I want to your collaboration on something urgent.Can we talk via WhatsApp?I love talking, hit me up.</t>
+          <t>tnerro1:If there is good railway network, we no go need all this wahalaThe real solution to benefit all Nigerians.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -3364,7 +3364,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Thanks so much Gazzuzz for this, your experiment on LPG conversion for generators gave me the confidence to convert my generator. When I saw ur videos on TikTok, I really wanted to know the year of the Hyundai i10 so I could do some calculations on the gains you got from converting it. I'm happy U stated the year on this post.The 2012 i10 has an average fuel efficiency of 32.2 MPG or 13.68 KM per liter according to data from FUELLYdotcom (this data was gotten from 55 vehicles, tracked across 2,651 fuel ups and 568,897 miles).Using this average, that 267km trip you did with N2,450 worth of CNG would have cost you: 267/13.68= 19.5 liters to complete.That is N13,271 at N680 per liter (As sold in my area), an incredible savings of N10, 821!!!, (over 80%).I had already made up my mind to convert my car to CNG cos I had done extensive research on it before now. The only issue was that there were no CNG stations in my State.Luckily, last month a CNG station was commissioned in my state, the very next Local Government to where I stay (39km away).Your videos once again on CNG conversion are timely, I can see the practicality of it all (not just theories and figures I got online), thank you so much.I think I will begin my conversion journey while I try to get those who would partner with me to get a station operational in the town I live.[quote author=GAZZUZZ post=127135727][/quote]</t>
+          <t>[quote author=GAZZUZZ post=127135727][/quote]This a a very lucrative business if one can get the fund to run itNice learning points</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -3376,7 +3376,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>davit:Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.</t>
+          <t>id4sho:Motivational TalkDon't buy converted CNG cars , buy the follow comeVery good advice</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -3388,7 +3388,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.</t>
+          <t>davit:Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.The face has been here for a while, just not on front page .</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>tnerro1:If there is good railway network, we no go need all this wahalaThe real solution to benefit all Nigerians.</t>
+          <t>Op is a Genuine Genius!Great write-up and accompanying video.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -3412,7 +3412,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[quote author=GAZZUZZ post=127135727][/quote]This a a very lucrative business if one can get the fund to run itNice learning points</t>
+          <t>Good one</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -3424,7 +3424,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>id4sho:Motivational TalkDon't buy converted CNG cars , buy the follow comeVery good advice</t>
+          <t>Good job bro</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>davit:Gazzuzz my guy. You re doing well. You revealed your face on this forum for the first time sha.The face has been here for a while, just not on front page .</t>
+          <t>SoNature:Bros is promoting his business!The initial installation cost is just discouraging.It's worth it in the long runSame way the initial installation of inverter is on the high side</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -3448,7 +3448,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Op is a Genuine Genius!Great write-up and accompanying video.</t>
+          <t>Kudos to you for this detailed information Sir.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -3460,7 +3460,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Good one</t>
+          <t>Highly commendable. Can this work for a camry?</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Good job bro</t>
+          <t>Kaybaba5:We are getting there....... It is not too far anyway</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -3484,7 +3484,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>SoNature:Bros is promoting his business!The initial installation cost is just discouraging.It's worth it in the long runSame way the initial installation of inverter is on the high side</t>
+          <t>God Would Help Us.For Spiritual Matters , Talk to me</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -3496,7 +3496,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Kudos to you for this detailed information Sir.</t>
+          <t>And I know this gives them joy, dey lik to push us to the point of rushing for crumbs.</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -3508,7 +3508,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Highly commendable. Can this work for a camry?</t>
+          <t>We are getting there....... It is not too far anyway</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -3520,7 +3520,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Kaybaba5:We are getting there....... It is not too far anyway</t>
+          <t>The issue would be sorted out soon.Good to know there are enough gas around.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>God Would Help Us.For Spiritual Matters , Talk to me</t>
+          <t>Kaybaba5:We are getting there....... It is not too far anywayWhere are you going?</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3544,7 +3544,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>And I know this gives them joy, dey lik to push us to the point of rushing for crumbs.</t>
+          <t>Thank you Mr Minister for the timely intervention.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>We are getting there....... It is not too far anyway</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofj</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -3568,7 +3568,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>The issue would be sorted out soon.Good to know there are enough gas around.</t>
+          <t>I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Kaybaba5:We are getting there....... It is not too far anywayWhere are you going?</t>
+          <t>Na only Gazzuzz fit run am!GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofj</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -3592,7 +3592,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Thank you Mr Minister for the timely intervention.</t>
+          <t>🤯🤯🤯</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -3604,7 +3604,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofj</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -3616,7 +3616,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>Good</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -3628,7 +3628,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Na only Gazzuzz fit run am!GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofj</t>
+          <t>Keep it up sir</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -3640,7 +3640,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>🤯🤯🤯</t>
+          <t>Konquest:Props to the memory of @Gazzuzz, the social entrepreneur and change agent.</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -3652,7 +3652,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>aieromon:Zero import dutyZero VATInstallation costs will crash and attract more investors.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -3664,7 +3664,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Good</t>
+          <t>aieromon:Zero import dutyZero VATInstallation costs will crash and attract more investors.</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Keep it up sir</t>
+          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten monthsZero import dutyZero VATInstallation costs will crash and attract more investors.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -3688,7 +3688,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Konquest:Props to the memory of @Gazzuzz, the social entrepreneur and change agent.</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -3700,7 +3700,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>aieromon:Zero import dutyZero VATInstallation costs will crash and attract more investors.</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -3712,7 +3712,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>aieromon:Zero import dutyZero VATInstallation costs will crash and attract more investors.</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>searchng4love:You spent 600,000 and above to save 1.2m in ten monthsZero import dutyZero VATInstallation costs will crash and attract more investors.</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -3748,7 +3748,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>GAZZUZZ:Natural Gas deployedhttps://www.youtube.com/watch?v=aHbCRB1fts0?si=BrziOLIZvVGpVx4zWell done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -3760,7 +3760,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>Wow</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -3772,7 +3772,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostThis is a good example of talking too much and saying nothingWhat is the comparison in cost to petrol or diesel e.g1000 CNG=2000petrolThat is what people are interested in</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -3784,7 +3784,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>Conner44:Aren't you the newbie with a 2.4L engine tool?Yep! Sell it and use the money judiciouslyOR . . .OR . . .Wait for it . . .Convert tocngandSEE THE ELUSIVE GAINyou have been searching forYou got 2 choices . . . 👌 (That's if your vehicle is in top shape already)Good luck 🙏</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -3796,7 +3796,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>GAZZUZZ:Natural Gas deployedhttps://www.youtube.com/watch?v=aHbCRB1fts0?si=BrziOLIZvVGpVx4zWell done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!</t>
+          <t>Conner44:Aren't you the newbie with a 2.4L engine tool?Yep! Sell it and use the money judiciouslyOR . . .OR . . .Wait for it . . .Convert tocngandSEE THE ELUSIVE GAINyou have been searching forYou got 2 choices . . . 👌 (That's if your vehicle is in top shape already)Good luck 🙏You nor really get sense. And you don't have the ability to become a good successful business man in future. From the way you always thinkSo you thinkcngis free to install. And the gas price will remain constant?Omonnn. Now blocked head you get.. I think I need to recommend some books for you to read and educate your self to have some good management skills. Not all opportunities you see is advisable to jump in..</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -3808,7 +3808,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Wow</t>
+          <t>Nigeria has one of the largest and most vibrant transportation sectors in Africa, with millions of vehicles navigating its roads daily. From bustling urban centers to rural highways, the choice of fuel is essential for both personal and commercial vehicle owners across the country.Recently, President Bola Tinubu announced that the price of petrol (PMS) will now reach N1,000 per litre, while Compressed Natural Gas (cng) will be available at N200 per Standard Cubic Meter. This significant price difference has led many Nigerians to reconsider their fuel options. Despite the rising number ofcngstations throughout the nation, a considerable portion of vehicle users remains skeptical and curious about the benefits of switching from petrol tocng.In this article, we’ll break down everything you need to know aboutcngand petrol cars in the simplest terms, weighing their pros and cons to help Nigerian drivers determine which fuel option best suits their needs. Given the country’s fluctuating fuel prices and growing environmental concerns, making an informed choice between petrol and the increasingly popularcngis more critical than ever.Understandingcngand Petrol CarsWhat Exactly iscng?Compressed Natural Gas (cng) is basically natural gas that’s been compressed to fit in a fuel tank. It’s different from the regular petrol (PMS) we’re used to in Nigeria, but it powers a car in almost the same way.How DocngCars Work?cngcars work just like petrol cars but with one big difference—they burn natural gas instead of liquid petrol. To make the switch, you’ll need a special tank installed in your car that holds the gas under high pressure.Can You Convert a Petrol Car tocng?Yes! If you already have a petrol car, you don’t have to buy a new vehicle to usecng. You can convert your existing car by installing acngconversion kit. This kit allows your car to run on either petrol orcng, giving you the flexibility to use whichever fuel is available. Additionally, the Nigerian government has compiled a list ofcngfueling locations across the country to help you find the nearest stations. You can check out this list at PCIcngConversion Centers.How Much Does it Cost to Convert tocng?Converting your petrol car tocngin Nigeria costs anywhere between...Please visit:https://everythingmotorsng.com/our-blog/</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -3820,7 +3820,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostThis is a good example of talking too much and saying nothingWhat is the comparison in cost to petrol or diesel e.g1000 CNG=2000petrolThat is what people are interested in</t>
+          <t>Kaybaba5:We are getting there....... It is not too far anyway</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -3832,7 +3832,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Conner44:Aren't you the newbie with a 2.4L engine tool?Yep! Sell it and use the money judiciouslyOR . . .OR . . .Wait for it . . .Convert tocngandSEE THE ELUSIVE GAINyou have been searching forYou got 2 choices . . . 👌 (That's if your vehicle is in top shape already)Good luck 🙏</t>
+          <t>Kaybaba5:We are getting there....... It is not too far anywayRight</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -3844,7 +3844,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Conner44:Aren't you the newbie with a 2.4L engine tool?Yep! Sell it and use the money judiciouslyOR . . .OR . . .Wait for it . . .Convert tocngandSEE THE ELUSIVE GAINyou have been searching forYou got 2 choices . . . 👌 (That's if your vehicle is in top shape already)Good luck 🙏You nor really get sense. And you don't have the ability to become a good successful business man in future. From the way you always thinkSo you thinkcngis free to install. And the gas price will remain constant?Omonnn. Now blocked head you get.. I think I need to recommend some books for you to read and educate your self to have some good management skills. Not all opportunities you see is advisable to jump in..</t>
+          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -3856,7 +3856,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Nigeria has one of the largest and most vibrant transportation sectors in Africa, with millions of vehicles navigating its roads daily. From bustling urban centers to rural highways, the choice of fuel is essential for both personal and commercial vehicle owners across the country.Recently, President Bola Tinubu announced that the price of petrol (PMS) will now reach N1,000 per litre, while Compressed Natural Gas (cng) will be available at N200 per Standard Cubic Meter. This significant price difference has led many Nigerians to reconsider their fuel options. Despite the rising number ofcngstations throughout the nation, a considerable portion of vehicle users remains skeptical and curious about the benefits of switching from petrol tocng.In this article, we’ll break down everything you need to know aboutcngand petrol cars in the simplest terms, weighing their pros and cons to help Nigerian drivers determine which fuel option best suits their needs. Given the country’s fluctuating fuel prices and growing environmental concerns, making an informed choice between petrol and the increasingly popularcngis more critical than ever.Understandingcngand Petrol CarsWhat Exactly iscng?Compressed Natural Gas (cng) is basically natural gas that’s been compressed to fit in a fuel tank. It’s different from the regular petrol (PMS) we’re used to in Nigeria, but it powers a car in almost the same way.How DocngCars Work?cngcars work just like petrol cars but with one big difference—they burn natural gas instead of liquid petrol. To make the switch, you’ll need a special tank installed in your car that holds the gas under high pressure.Can You Convert a Petrol Car tocng?Yes! If you already have a petrol car, you don’t have to buy a new vehicle to usecng. You can convert your existing car by installing acngconversion kit. This kit allows your car to run on either petrol orcng, giving you the flexibility to use whichever fuel is available. Additionally, the Nigerian government has compiled a list ofcngfueling locations across the country to help you find the nearest stations. You can check out this list at PCIcngConversion Centers.How Much Does it Cost to Convert tocng?Converting your petrol car tocngin Nigeria costs anywhere between...Please visit:https://everythingmotorsng.com/our-blog/</t>
+          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -3868,7 +3868,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Kaybaba5:We are getting there....... It is not too far anyway</t>
+          <t>You're a big good for nothing fhooool!Are you !d!ot using the audio CNGAnither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Kaybaba5:We are getting there....... It is not too far anywayRight</t>
+          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!is Tinubu using CNG?</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -3904,7 +3904,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -3916,7 +3916,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>You're a big good for nothing fhooool!Are you !d!ot using the audio CNGAnither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!</t>
+          <t>ogbevireo:Well done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -3928,7 +3928,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Anither563:This is a great initiative by NIPCO and President Tinubu. This is the way to go.God bless Nigeria for ever!is Tinubu using CNG?</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -3952,7 +3952,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostI see this CNG as one driving around with a bomb 💣</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ogbevireo:Well done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!</t>
+          <t>This is beginning to make senseGAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -3976,7 +3976,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>ogbevireo:Well done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!Looking at Warri, we should talk</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -3988,7 +3988,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostCan this also go for Perkings 40 KVA generator that uses diesel?</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostI see this CNG as one driving around with a bomb 💣</t>
+          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostNice one.What is the cost to install the cng system in the car?</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -4012,7 +4012,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>This is beginning to make senseGAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored Post</t>
+          <t>Nice one..keep up the good work sir</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4024,7 +4024,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ogbevireo:Well done chief!Is there any chance we could get a breakdown of the cost to do this retrofit at current prices of course?Also, do you have a partner in the south south, like in Delta state?Thank you!Looking at Warri, we should talk</t>
+          <t>searchng4love:Good to see you are catching up on due diligence. However do you have any insurance for unseen fuckups?</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GAZZUZZ:I just completed this CNG retrofit on a 2009 Ford F150 with a V8 4.6L natural aspirated Engine .The vehicle is now fitted with 3 CNG tanks with a combined capacity of 165L (48 SCM @210bar)Vehicle now boasts of 300km Highway travel on 48SCM which is an equivalent of ₦9600 @ ₦200 per SCM. For better description the distance of Lagos to Benin is about 295km.Now this is nothing new to CNG retrofits as it brings down the cost of fueling most vehicles by 70% in ₦.What is unique about this vehicle is it's ability to provide Natural Gas for external use for equipment like Generators, and cooking utensils.This again brings down the cost of powering your petrol powered gen by about 70%.In place of LPG it is currently 200% cheaper to burn Natural gas as against LPG.We have an abundance of natural Gas reserves in Nigeria , hopefully we can all tap into this God given free gift to lower our expenses.God bless Nigeria.Gazzuzz08033910382Mainland Lagoshttps://www.youtube.com/watch?v=rDABVXLZEHg?si=FqBFopP55IxCCofjhttps://vm.tiktok.com/ZMMS3pNCD/Sponsored PostCan this also go for Perkings 40 KVA generator that uses diesel?</t>
+          <t>GAZZUZZ:Regular car insurance will cover vehicle.It's still a car covered buy A fuel that is safer than petrol.Next!</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
